--- a/data/trans_dic/P42C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R-Habitat-trans_dic.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -700,12 +700,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,18; 27,85</t>
+          <t>8,52; 26,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,97; 22,98</t>
+          <t>8,33; 22,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -715,12 +715,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,18; 27,85</t>
+          <t>8,52; 26,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,97; 22,98</t>
+          <t>8,33; 22,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,12 +810,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,61; 21,25</t>
+          <t>13,68; 20,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,09; 11,95</t>
+          <t>6,37; 12,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,61; 21,25</t>
+          <t>13,68; 20,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,09; 11,95</t>
+          <t>6,37; 12,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -920,12 +920,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,1; 30,92</t>
+          <t>24,43; 31,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,43; 16,22</t>
+          <t>11,39; 16,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -935,12 +935,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,1; 30,92</t>
+          <t>24,43; 31,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,43; 16,22</t>
+          <t>11,39; 16,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1030,12 +1030,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,36; 29,22</t>
+          <t>21,81; 29,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,34; 19,21</t>
+          <t>13,05; 19,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,36; 29,22</t>
+          <t>21,81; 29,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,34; 19,21</t>
+          <t>13,05; 19,41</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1140,12 +1140,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,64; 27,03</t>
+          <t>20,47; 26,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,29; 22,84</t>
+          <t>17,3; 22,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1155,12 +1155,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,64; 27,03</t>
+          <t>20,47; 26,51</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,29; 22,84</t>
+          <t>17,3; 22,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1250,12 +1250,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,33; 25,76</t>
+          <t>22,25; 25,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,16; 16,77</t>
+          <t>14,27; 16,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,33; 25,76</t>
+          <t>22,25; 25,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,16; 16,77</t>
+          <t>14,27; 16,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">

--- a/data/trans_dic/P42C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -700,32 +700,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,52; 26,96</t>
+          <t>9,05; 27,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,33; 22,63</t>
+          <t>7,84; 23,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 14,69</t>
+          <t>4,11; 13,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,52; 26,96</t>
+          <t>9,05; 27,79</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,33; 22,63</t>
+          <t>7,84; 23,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 14,69</t>
+          <t>4,11; 13,88</t>
         </is>
       </c>
     </row>
@@ -810,32 +810,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,68; 20,97</t>
+          <t>13,68; 21,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,37; 12,52</t>
+          <t>6,24; 12,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,77; 17,25</t>
+          <t>10,8; 17,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,68; 20,97</t>
+          <t>13,68; 21,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,37; 12,52</t>
+          <t>6,24; 12,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,77; 17,25</t>
+          <t>10,8; 17,22</t>
         </is>
       </c>
     </row>
@@ -920,32 +920,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,43; 31,11</t>
+          <t>24,6; 31,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,39; 16,43</t>
+          <t>11,52; 16,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,12; 24,09</t>
+          <t>17,92; 23,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,43; 31,11</t>
+          <t>24,6; 31,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,39; 16,43</t>
+          <t>11,52; 16,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,12; 24,09</t>
+          <t>17,92; 23,97</t>
         </is>
       </c>
     </row>
@@ -1030,32 +1030,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,81; 29,15</t>
+          <t>22,06; 28,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,05; 19,41</t>
+          <t>13,21; 19,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,44; 37,12</t>
+          <t>27,96; 36,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,81; 29,15</t>
+          <t>22,06; 28,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,05; 19,41</t>
+          <t>13,21; 19,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>28,44; 37,12</t>
+          <t>27,96; 36,89</t>
         </is>
       </c>
     </row>
@@ -1140,32 +1140,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,47; 26,51</t>
+          <t>20,89; 26,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,3; 22,84</t>
+          <t>17,13; 22,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,72; 30,5</t>
+          <t>23,91; 30,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,47; 26,51</t>
+          <t>20,89; 26,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,3; 22,84</t>
+          <t>17,13; 22,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,72; 30,5</t>
+          <t>23,91; 30,65</t>
         </is>
       </c>
     </row>
@@ -1250,32 +1250,32 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,25; 25,68</t>
+          <t>22,29; 25,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,27; 16,88</t>
+          <t>14,19; 16,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,22; 25,6</t>
+          <t>22,06; 25,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,25; 25,68</t>
+          <t>22,29; 25,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,27; 16,88</t>
+          <t>14,19; 16,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,22; 25,6</t>
+          <t>22,06; 25,69</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P42C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -647,32 +647,32 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>12,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,48%</t>
+          <t>17,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>12,94%</t>
         </is>
       </c>
     </row>
@@ -700,39 +700,39 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,05; 27,79</t>
+          <t>13,98; 21,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,84; 23,84</t>
+          <t>7,45; 12,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 13,88</t>
+          <t>10,46; 16,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,05; 27,79</t>
+          <t>13,98; 21,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,84; 23,84</t>
+          <t>7,45; 12,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 13,88</t>
+          <t>10,46; 16,02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>27,66%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>21,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,25%</t>
+          <t>27,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>13,88%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>21,13%</t>
         </is>
       </c>
     </row>
@@ -810,39 +810,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,68; 21,19</t>
+          <t>24,6; 31,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,24; 12,29</t>
+          <t>11,52; 16,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,8; 17,22</t>
+          <t>18,22; 24,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,68; 21,19</t>
+          <t>24,6; 31,5</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,24; 12,29</t>
+          <t>11,52; 16,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,8; 17,22</t>
+          <t>18,22; 24,18</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -867,32 +867,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>31,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>27,66%</t>
+          <t>25,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>16,16%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>31,0%</t>
         </is>
       </c>
     </row>
@@ -920,39 +920,39 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,6; 31,5</t>
+          <t>22,06; 28,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>11,52; 16,25</t>
+          <t>13,21; 19,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,92; 23,97</t>
+          <t>23,33; 36,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,6; 31,5</t>
+          <t>22,06; 28,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,52; 16,25</t>
+          <t>13,21; 19,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,92; 23,97</t>
+          <t>23,33; 36,09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -977,32 +977,32 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>23,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>32,6%</t>
+          <t>25,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>23,69%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>32,6%</t>
+          <t>25,42%</t>
         </is>
       </c>
     </row>
@@ -1030,39 +1030,39 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,06; 28,89</t>
+          <t>20,89; 26,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,21; 19,31</t>
+          <t>17,13; 22,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,96; 36,89</t>
+          <t>17,39; 29,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,06; 28,89</t>
+          <t>20,89; 26,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,21; 19,31</t>
+          <t>17,13; 22,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,96; 36,89</t>
+          <t>17,39; 29,71</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1087,32 +1087,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>27,18%</t>
+          <t>23,2%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>15,47%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>27,18%</t>
+          <t>23,2%</t>
         </is>
       </c>
     </row>
@@ -1140,154 +1140,44 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20,89; 26,97</t>
+          <t>22,29; 25,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,13; 22,9</t>
+          <t>14,19; 16,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,91; 30,65</t>
+          <t>20,33; 25,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,89; 26,97</t>
+          <t>22,29; 25,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,13; 22,9</t>
+          <t>14,19; 16,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,91; 30,65</t>
+          <t>20,33; 25,26</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>23,93%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>15,47%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>23,88%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>23,93%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>15,47%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>23,88%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>22,29; 25,89</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>14,19; 16,98</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>22,06; 25,69</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>22,29; 25,89</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>14,19; 16,98</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>22,06; 25,69</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P42C_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -700,32 +701,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,98; 21,04</t>
+          <t>13,75; 20,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,45; 12,76</t>
+          <t>7,26; 12,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,46; 16,02</t>
+          <t>10,36; 15,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,98; 21,04</t>
+          <t>13,75; 20,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,45; 12,76</t>
+          <t>7,26; 12,73</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,46; 16,02</t>
+          <t>10,36; 15,99</t>
         </is>
       </c>
     </row>
@@ -810,32 +811,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,6; 31,5</t>
+          <t>24,4; 30,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,52; 16,25</t>
+          <t>11,51; 16,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,22; 24,18</t>
+          <t>18,29; 24,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,6; 31,5</t>
+          <t>24,4; 30,98</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,52; 16,25</t>
+          <t>11,51; 16,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,22; 24,18</t>
+          <t>18,29; 24,05</t>
         </is>
       </c>
     </row>
@@ -920,32 +921,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,06; 28,89</t>
+          <t>21,87; 29,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,21; 19,31</t>
+          <t>13,17; 19,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,33; 36,09</t>
+          <t>23,89; 35,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>22,06; 28,89</t>
+          <t>21,87; 29,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,21; 19,31</t>
+          <t>13,17; 19,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>23,33; 36,09</t>
+          <t>23,89; 35,97</t>
         </is>
       </c>
     </row>
@@ -1030,32 +1031,32 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,89; 26,97</t>
+          <t>20,66; 26,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,13; 22,9</t>
+          <t>17,07; 22,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,39; 29,71</t>
+          <t>17,87; 29,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,89; 26,97</t>
+          <t>20,66; 26,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,13; 22,9</t>
+          <t>17,07; 22,83</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,39; 29,71</t>
+          <t>17,87; 29,98</t>
         </is>
       </c>
     </row>
@@ -1140,32 +1141,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>22,29; 25,89</t>
+          <t>22,3; 25,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,19; 16,98</t>
+          <t>14,25; 17,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,33; 25,26</t>
+          <t>20,44; 25,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,29; 25,89</t>
+          <t>22,3; 25,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,19; 16,98</t>
+          <t>14,25; 17,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,33; 25,26</t>
+          <t>20,44; 25,25</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuya última consulta ginecológica fue en un centro privado</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>89220</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>48545</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>46941</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>89220</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>48545</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>46941</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>71590; 107013</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>35866; 62905</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>37572; 57971</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>71590; 107013</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>35866; 62905</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>37572; 57971</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>214834</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>117083</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>116043</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>214834</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>117083</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>116043</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>189518; 240607</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>97100; 138643</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>100442; 132070</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>189518; 240607</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>97100; 138643</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>100442; 132070</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>160802</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>97428</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>133077</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>160802</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>97428</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>133077</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>139352; 185597</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>79406; 116676</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>102577; 154413</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>139352; 185597</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>79406; 116676</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>102577; 154413</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>190820</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>166475</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>171276</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>190820</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>166475</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>171276</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>166384; 215484</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>142770; 190902</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>120434; 202002</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>166384; 215484</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>142770; 190902</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>120434; 202002</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>655675</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>429531</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>467337</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>655675</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>429531</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>467337</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>611083; 705108</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>395628; 472258</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>411727; 508802</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>611083; 705108</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>395628; 472258</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>411727; 508802</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>